--- a/data/Shirts/Sublimation Cutting of Shirts.xlsx
+++ b/data/Shirts/Sublimation Cutting of Shirts.xlsx
@@ -1,41 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Semesters\FYP\Backend\TheExportersLoom-Apis\data\Shirts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+  <si>
+    <t>Quantity of Shirts</t>
+  </si>
+  <si>
+    <t>Rate per Shirt (PKR)</t>
+  </si>
+  <si>
+    <t>Total Cost (PKR)</t>
+  </si>
+  <si>
+    <t>1-24</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>26-49</t>
+  </si>
+  <si>
+    <t>2600 - 4900</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>51-99</t>
+  </si>
+  <si>
+    <t>4080 - 7920</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>101-199</t>
+  </si>
+  <si>
+    <t>6060 - 11940</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>201-299</t>
+  </si>
+  <si>
+    <t>10050 - 14950</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>301-399</t>
+  </si>
+  <si>
+    <t>12040 - 15960</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>401-499</t>
+  </si>
+  <si>
+    <t>14035 - 17465</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>501-999</t>
+  </si>
+  <si>
+    <t>15030 - 29970</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,14 +171,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,202 +514,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Quantity of Shirts</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Rate per Shirt (PKR)</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Total Cost (PKR)</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1-24</v>
-      </c>
-      <c r="B2" t="str">
-        <v>-</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="str">
-        <v>100</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>26-49</v>
-      </c>
-      <c r="B4" t="str">
-        <v>100</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2600 - 4900</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>50</v>
-      </c>
-      <c r="B5" t="str">
-        <v>80</v>
-      </c>
-      <c r="C5" t="str">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>51-99</v>
-      </c>
-      <c r="B6" t="str">
-        <v>80</v>
-      </c>
-      <c r="C6" t="str">
-        <v>4080 - 7920</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>100</v>
-      </c>
-      <c r="B7" t="str">
-        <v>60</v>
-      </c>
-      <c r="C7" t="str">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>101-199</v>
-      </c>
-      <c r="B8" t="str">
-        <v>60</v>
-      </c>
-      <c r="C8" t="str">
-        <v>6060 - 11940</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>200</v>
-      </c>
-      <c r="B9" t="str">
-        <v>50</v>
-      </c>
-      <c r="C9" t="str">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>201-299</v>
-      </c>
-      <c r="B10" t="str">
-        <v>50</v>
-      </c>
-      <c r="C10" t="str">
-        <v>10050 - 14950</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>300</v>
-      </c>
-      <c r="B11" t="str">
-        <v>40</v>
-      </c>
-      <c r="C11" t="str">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>301-399</v>
-      </c>
-      <c r="B12" t="str">
-        <v>40</v>
-      </c>
-      <c r="C12" t="str">
-        <v>12040 - 15960</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>400</v>
-      </c>
-      <c r="B13" t="str">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="str">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>401-499</v>
-      </c>
-      <c r="B14" t="str">
-        <v>35</v>
-      </c>
-      <c r="C14" t="str">
-        <v>14035 - 17465</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>500</v>
-      </c>
-      <c r="B15" t="str">
-        <v>30</v>
-      </c>
-      <c r="C15" t="str">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>501-999</v>
-      </c>
-      <c r="B16" t="str">
-        <v>30</v>
-      </c>
-      <c r="C16" t="str">
-        <v>15030 - 29970</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>1000</v>
-      </c>
-      <c r="B17" t="str">
-        <v>25</v>
-      </c>
-      <c r="C17" t="str">
-        <v>25000</v>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C17"/>
+    <ignoredError sqref="A1:C1 A3:C17 A2 C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>